--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-chinned Petrel_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-chinned Petrel_Prince Edward Islands.xlsx
@@ -4255,13 +4255,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6485264C-C686-49F7-AA15-A07E11D87C4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8F8D41-83C2-4C51-9ADF-F25A5AD93180}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F9C9AD-02D6-46B1-8FC1-FF4C35B04E82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A599E5B0-E1B9-4E4A-AB62-9FC599D156B3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0CE051-CF3D-4990-9F98-A62D5DE627BF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA6DC3D-1F66-43C7-AA0F-8A70970C1058}"/>
 </file>